--- a/Sentiment_Analysis/nlp/Web_Scraping/lazada_data_case3.xlsx
+++ b/Sentiment_Analysis/nlp/Web_Scraping/lazada_data_case3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,398 +440,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>5.0/52885 Ratings2818521212</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>อร่อยทุกอย่างเลย สั่งรอบที่ 2 แล้วจ้า แต่ว่าพวก 8 เซียน กับ 8 เทพ อะไรนี่ ค่อนข้างมีกลิ่นหืนๆนะคะ อาจจะด้วยความเป็นธัญพืชและผลไม้อบแห้งรวมกันรึเปล่าไม่แน่ใจ แต่คุกกี้และทาร์ตอร่อยเหมือนเดิมจ้า
-ปล.8 เซียน กับ 8 เทพ เพิ่งสั่งครั้งแรกจ้า</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>สมดุลที่สมบูรณ์แบบของความหวานและความเปรี้ยว, ความอร่อยที่ละลายในปาก!, ไส้ชีสเนื้อนุ่มและเนื้อนวล, ทาร์ตที่อร่อยและครีมมี่!, 
- 💰ราคา:  ถูก
- 📦บรรจุภัณฑ์:  น่ารัก
- 🧀รสชาติ:  อร่อย</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ทางร้านแพ็คสินค้ามาเป็นอย่างดีเหมือนเดิม และจัดส่งรวดเร็วดี ชีสทาร์ตสตรอเบอร์รี่ หอมเนย ไส้เยอะ และหวานกำลังดี เอ็กซ์ตร้าดีลราคาชิ้นละ 2 บาท คุ้มมากครับ</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าถูกต้อง ครบถ้วน
-ขนมร้านนี้ อร่อยมาก สั่งหลายครั้งแล้ว
-การบริการจัดส่ง เรียบร้อยดี</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ทางร้านแพ็คและจัดส่งสินค้ามาถูกต้องครบถ้วนตามออเดอร์ ชีสทาร์ตสตรอเบอร์รี่ หอมเนย ไส้เยอะ และหวานกำลังดี เอ็กซ์ตร้าดีลราคาชิ้นละ 2 บาท คุ้มมากครับ</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5.0/52885 Ratings2818521212</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>รสชาติ:อร่อย คุณค่าของเงิน:คุ้ม
-อร่อยค่ะ คุ้มด้วย 3ชิเน6บาทรวมส่งเก็บปลายทาวได้ด้วย ชอบบบ
-ชิ้นพดีคำ ไส้หวานอมเปรี้ยวเข้ากันกับแป้ง</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ทางร้านแพ็คสินค้ามาเป็นอย่างดีเหมือนเดิม และจัดส่งรวดเร็วดีมาก ชีสทาร์ตสตรอเบอร์รี่หอมเนย ไส้เยอะ และหวานกำลังดี Exclusive price ราคา 2 บาท คุ้มมากครับ</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>รสชาติ:คือมันอร่อยยยยยยยย หอมชอบๆๆๆๆๆๆๆๆๆๆๆๆๆ สั่งอีกแน่นอนนนนนนนนนนนนนนนนนนนนนนนนนนนนนนน</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>แพคเกจดี​ ไม่มีตำหนิ สินค้าดีมีคุณภาพ​  จัดส่งไว​ เคยสั่งมาหลายครั้งแล้วคับ​ แนะนำร้านนี้เลย</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>อร่อยแพ็คสินค้ามาดีได้สินค้าครบตรงตามที่สั่งสินค้าดีมีคุณภาพขนส่งบริการดีจัดส่งไวไว้อุดหนุนอีกเรื่อยๆค่ะ</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5.0/52885 Ratings2818521212</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ได้รับเช็คทางสตอเบอรี่แล้ว บริการดีส่งเร็ว ติดใจร้านนี้รสชาติอร่อยเหมือนเดิม ขอขอบคุณร้านค้าและ Lazada ขอให้มีโปรดี มาเรื่อยๆจะซื้อประจำค่า</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>สินค้าคุณภาพดี ราคาไม่แพง จัดส่งรวดเร็ว ประทับใจ คุ้มค่า คุ้มราคามากๆ ชอบๆๆยอดเยี่ยม ไว้จะอุดหนุนอีก  ดีๆๆๆๆๆๆ</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>สินค้าคุณภาพดี ราคาไม่แพง จัดส่งรวดเร็ว ประทับใจ คุ้มค่า คุ้มราคามากๆ ชอบๆๆยอดเยี่ยม ไว้จะอุดหนุนอีก  ดีๆๆๆๆๆๆ</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าเรียบร้อยแล้วครับสินค้าถูกส่งมาในสภาพสมบูรณ์เรียบร้อยไม่เสียหายสินค้าตรงปกตามที่ทางร้านระบุซื้อสินค้าตอนแฟรชเซลถูกมากๆคุ้มมาก</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>แพ็กเกจจิ้งสวยเหมือนขนมจากญี่ปุ่นเลย เสียดายมากเวลาแกะกิน แพ็กกิ้งของดีมีห่อบับเบิ้ลแยกเป็นอย่างๆ ขนมน่าจะokสำหรับคนส่วนใหญ่ แต่โดยส่วนตัว จะว่าหวานไปหน่อย เพราะกินรสค่อนข้างจืด ติที่ไส้ที่บอกว่าเป็นสตรอเบอรี่ น่าจะเป็นสับปะรดใส่กลิ่นสตรอเบอรี่รึเปล่า กินแล้วมันมีกากๆ กลิ่นสตรอเบอรี่อ่อนมากๆ ถ้าไม่รู้ คงคิดว่าเป็นไส้สับปะรด</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>5.0/52885 Ratings2818521212</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ทางร้านแพ็คสินค้ามาเป็นอย่างดีเหมือนเดิม ชีสทาร์ตสตรอเบอรี่หอมเนย ไส้เยอะ และหวานกำลังดี Exclusive price ราคา 2 บาท คุ้มมากครับ</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>สั่งรอบ2แล้ว ขนมรสชาดดี บราวนี่อร่อย รอบนี้ใช้เวลาส่ง3วัน แต่ยังไม่มีอะไรเสียหาย package สวย</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>สินค้าคุณภาพดี ราคาไม่แพง จัดส่งรวดเร็ว ประทับใจ คุ้มค่า คุ้มราคามากๆ ชอบๆๆยอดเยี่ยม ไว้จะอุดหนุนอีก  ดีๆๆๆๆๆๆ</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>คุณค่าของเงิน: รสชาติ:ได้รับสินค้าเรียบร้อยแล้วครับสินค้าถูกส่งมาในสภาพสมบูรณ์เรียบร้อยไม่เสียหายสินค้าตรงปกตามที่ทางร้านระบุซื้อสินค้าตอนแฟรชเซลถูกมากๆคุ้มมาก</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>คุณค่าของเงิน: รสชาติ:ได้รับสินค้าเรียบร้อยแล้วครับสินค้าถูกส่งมาในสภาพสมบูรณ์เรียบร้อยไม่เสียหายสินค้าตรงปกตามที่ทางร้านระบุซื้อสินค้าตอนแฟรชเซลถูกมากๆคุ้มมาก</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>5.0/52885 Ratings2818521212</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>แพ็คสินค้ามาดีได้สินค้าครบตรงตามที่สั่งสินค้าดีมีคุณภาพขนส่งบริการดีจัดส่งไวไว้อุดหนุนอีกเรื่อยๆค่</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ชีสมาร์คสตรอเบอรี่ สินค้าตรงปก สินค้าคุณภาพทางร้านบริการดีจัดส่งให้ไวมากๆๆๆๆๆๆๆๆๆๆๆ</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ทางร้านแพ็คสินค้ามาเป็นอย่างดีเหมือนเดิม และจัดส่งรวดเร็วดีมาก ชีสทาร์ตสตรอเบอรี่หอมเนย ไส้เยอะ และหวานกำลังดี โปร 3.3 Exclusive price ราคา 2 บาท คุ้มมากครับ</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ได้รับสินค้าถูกต้องเรียบร้อยดีค่ะทางร้านแพ็คห่อบับเบิ้ลมาเป็นอย่างดีสินค้าไม่ได้รับความเสียหายไม่แตกไม่หักเลยแม้แต่ชิ้นเดียวสินค้าแยกเป็นชิ้นๆมาแพคเกจน่ารักน่ารับประทานมากเลยค่ะสินค้าเลยไม่ได้รับความเสียหายส่วนรสชาติใช้ได้เลยค่ะแต่พายสับปะรดชิ้นเล็กลงมานี้นิดนึงแต่ก็โอเคนะคะ</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>คุณภาพสินค้าดีมาก ความคุ้มค่าดีมาก ร้านบริการดีมาก แพ็คสินค้ามาดีมาก จัดส่งรวดเร็วดีมาก ขนส่งดีมาก</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>5.0/52885 Ratings2818521212</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>แพ็คดีมากค่ะ ขนมไม่มีแตกเลย  ขนมก็อร่อยชอบมากเลยค่ะ</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ได้ของไวมาก ๆ ค่ะ ชอบมากค่ะ ร้านค้าก็ส่งเร็วๆ มากแพ็คดีค่ะ ไว้ครั้งหน้าจะกลับมาสั่งอีกนะคะ ถูกใจมากเลย ๆๆๆ 🥰🥰🥰</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>ราคาถูกส่งเร็วได้ชิมแล้วอร่อยมากค่ะ ไว้มีโอกาสจะอุดหนุนอีก</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>อร่อยค่า ใส้เยอะ ชอบมากๆ จัดส่งรวดเร็ว แพคดีมาก</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ขนมน่าทานมากอร่อยด้วยนี่สั่งรอบสองแล้วจ้า</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>5.0/52885 Ratings2818521212</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ทางร้านส่งของเร็วมาก สั่งคืนวันที่ 27 กุมภา ของมาถึง 29 กุมภา
-แพ็คสินค้ามาดี ไม่เสียหาย ชิมขนมแล้วอร่อยมากค่ะ </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ทาร์ตอร่อยและเครีมมีความอร่อย!, ความหวานและความเปรี้ยวสมดุลเป็นอย่างดี, ไส้ชีสเนื้อนุ่มและเนื้อนวล,  </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ส่งเร็วดีค่ะ
- 🧀รสชาติ: นุ่มนิ่ม
- 💰ราคา: ถ้าทำถูกกว่านี้ได้ก็ดีค่ะ
- 📦บรรจุภัณฑ์: แพ็คมาดีค่ะ สวยงามน่ารักไม่แตกหัก </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">คุณค่าของเงิน:  คุ้มค่าาาาาาาาาาาาาาา ราคาไม่เเพงมากกกกกกกกกก 
- รสชาติ:  ดี อร่อยนนน หอมมมมม หวานนน ไส้หวานอมเปรี้ยว </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ของอร่อยสำหรับคนรักสตรอเบอร์รี่, สมดุลที่สมบูรณ์แบบของความหวานและความเปรี้ยว, รสสตรอเบอร์รี่อร่อยมาก!,  </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>5.0/52885 Ratings2818521212</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ได้รับสินค้าแล้วค่ะ ชีสทาร์ตสตอเบอรี่ รสชาติอร่อยแป้งนุ่มค่ะ ราคาไม่แพง การแพ็คบรรจุมาดีค่ะ ไม่แตกเลยค่ะ </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">เป็นร้านคุ้กกี้ในดวงใจ สั่งหลายรอบแล้ว อร่อยมากค่ะ หอมเนย ใส้แน่ๆ แม่ค้าน่ารัก การจัดส่งเร็ว แพ็คสินค้ามาดีมากไม่มีแตกเลยค่ะ </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>อร่อยสั่งบ่อยแพ็คสินค้ามาดีได้สินค้าครบตรงตามที่สั่งสินค้าดีมีคุณภาพขนส่งบริการดีจัดส่งไวไว้อุดหนุนอีกเรื่อยๆค่ะ</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>รสชาติใช้ได้​ครับ​ คล้ายๆ​ ขนมปังสัปปะรด​ ขนส่งเร็วดี​ แพคของมาอย่างดี​ มีโค้ดลดด้วย​ ฟินๆ</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ทางร้านแพ็คสินค้ามาเป็นอย่างดีเหมือนเดิม และจัดส่งได้รวดเร็วดี ชีสทาร์ตสตรอเบอร์รี่หอมเนย ไส้เยอะ และหวานกำลังดี Exclusive price ราคา 2 บาท และได้คูปองส่งฟรีจากลาซาด้า คุ้มมากครับ</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>5.0/52885 Ratings2818521212</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>☑️ได้รับสินค้าเรียบร้อยครบถ้วนค่ะ☑️
-ร้านนี้จัดส่งสินค้ารวดเร็วมากๆ ..แพ็คสินค้าดี...ราคาถูก</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>ทางร้านแพ็คสินค้ามาเป็นอย่างดีเหมือนเดิม และจัดส่งได้รวดเร็วดี ชีสทาร์ตสตรอเบอร์รี่หอมเนย ไส้เยอะ และหวานกำลังดี Exclusive price ราคา 2 บาท และได้คูปองส่งฟรีจากลาซาด้า คุ้มมากครับ</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>สั่งซื้อวันที่ 1.1 ได้รับวันที่ 7.1 ร้านใส่กล่องแพ๊คมาดี ซื้อตอนแฟลช​เซลล์​ ราคาถูกมาก อร่อยมาก ลาซาด้าช่วยเปออกค่าส่งให้ฟรี</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">แต่ มีรอยหนูกัด ร้านแพ๊ดมาดี มากคร้าา หมดแล้ว จะสั้งอีกแน่นอน แน้ช่วย ส่งให้ไว กว่านี้ได้  สี่วันมาถึง </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>อร่อยยยยยย ไส้แน่นมากกกก ผลไม้ฉ่ำ หวานอมเปรี้ยว ราคาดี จัดส่งรวดเร็ว ทางร้านแพ็กมาอย่างดี</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
